--- a/biology/Médecine/Acidurie_méthacrylique/Acidurie_méthacrylique.xlsx
+++ b/biology/Médecine/Acidurie_méthacrylique/Acidurie_méthacrylique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acidurie_m%C3%A9thacrylique</t>
+          <t>Acidurie_méthacrylique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acidurie méthacrylique ou neurodégénérescence par déficit en 3-hydroxyisobutyryl-CoA hydrolase est une pathologie très rare en rapport avec un déficit de la beta-hydroxyisobutyryl-CoA hydrolase, enzyme impliquée dans le métabolisme de la valine.
 Cette pathologie est plutôt en rapport avec la présence de produit hautement toxique qu'une maladie de surcharge.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acidurie_m%C3%A9thacrylique</t>
+          <t>Acidurie_méthacrylique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En janvier 2007, quatre garçons ont été décrits selon Orphanet[1] et 2 selon l'équipe de Ference J. Loupatty[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En janvier 2007, quatre garçons ont été décrits selon Orphanet et 2 selon l'équipe de Ference J. Loupatty.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acidurie_m%C3%A9thacrylique</t>
+          <t>Acidurie_méthacrylique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sujets atteints présentent une dysmorphie faciale, une cardiopathie congénitale type tétralogie de Fallot, une agénésie du corps calleux et des anomalies vertébrales
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acidurie_m%C3%A9thacrylique</t>
+          <t>Acidurie_méthacrylique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Conseil génétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Différentes mutations touchant les deux allèles du gène HIBCH, codant la 3-hydroxyisobutyryl-CoA hydrolase ont été identifiées[1]. Le mode de transmission est probablement autosomique récessive.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Différentes mutations touchant les deux allèles du gène HIBCH, codant la 3-hydroxyisobutyryl-CoA hydrolase ont été identifiées. Le mode de transmission est probablement autosomique récessive.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Acidurie_m%C3%A9thacrylique</t>
+          <t>Acidurie_méthacrylique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 250620 ncbi.nlm.nih.gov</t>
         </is>
